--- a/biology/Botanique/Delprivale/Delprivale.xlsx
+++ b/biology/Botanique/Delprivale/Delprivale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Delprivale est le nom d'un cultivar de pommiers domestiques.
 Cette pomme peut être classée dans les Pommes des Moissons, des pommes précoces qui se récoltent dès l'été, comme Transparente blanche, Transparente de Croncels, Lion d'été....
@@ -512,7 +524,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Obtenu en France par (Delbard, 1960).
 </t>
@@ -543,10 +557,12 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>1990 : début de la distribution.
-2008 : prolongation de 5 ans au « Catalogue officiel des espèces et variétés de plantes cultivées en France »[1].</t>
+2008 : prolongation de 5 ans au « Catalogue officiel des espèces et variétés de plantes cultivées en France ».</t>
         </is>
       </c>
     </row>
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Une des premières pommes de l'année.
 Robe : rouge.
@@ -606,7 +624,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette Pomme des Moissons résulte du croisement Delcroft x Akane.
 </t>
@@ -637,9 +657,11 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pomme fécondée par Royal Gala tenroy, Reine des reinettes, Delbard Jubilé delgollune[2].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pomme fécondée par Royal Gala tenroy, Reine des reinettes, Delbard Jubilé delgollune.
 </t>
         </is>
       </c>
@@ -668,7 +690,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Cette variété de pommier est appropriée aux petits jardins familiaux à cause de sa résistance aux maladies héritée du cultivar Akane.
 Cultivar; vigoureux et productif.
